--- a/game/data/excel/item_info.xlsx
+++ b/game/data/excel/item_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="11028"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="11028"/>
   </bookViews>
   <sheets>
     <sheet name="item_info" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -458,7 +470,7 @@
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,13 +480,22 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>

--- a/game/data/excel/item_info.xlsx
+++ b/game/data/excel/item_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="11028"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="11028"/>
   </bookViews>
   <sheets>
     <sheet name="item_info" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,26 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钢笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是妈妈给我的钢笔哟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢笔_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一周目第二关卡妈妈送给我的礼物哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +96,112 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陪我熬过整个高中生活的笔，已经快没水了..
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白白的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总让人想写点什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小时候每次得到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>奖状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，爸爸妈妈都会高兴地把奖状贴在墙上..</t>
+    </r>
+  </si>
+  <si>
+    <t>奖状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刚收到的录取通知书，明明是想让爸爸妈妈高兴的……怎么会变成这样..
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录取通知书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一朵黄色的花，这是康乃馨还是玫瑰呀.. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +239,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,8 +288,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,7 +579,7 @@
   <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -475,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,32 +613,83 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
       </c>
     </row>
     <row r="201" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
